--- a/lpoint_시계열(일별 소비금액).xlsx
+++ b/lpoint_시계열(일별 소비금액).xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>seasonal</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,6 +39,22 @@
   </si>
   <si>
     <t>RMSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12(월별)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24(시간)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>52(주)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7(일별)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -137,9 +153,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -152,9 +165,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -163,6 +173,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -446,8 +462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -457,708 +473,708 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="2">
+      <c r="A2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2">
-        <v>12</v>
-      </c>
-      <c r="E2" s="2">
-        <v>24</v>
-      </c>
-      <c r="F2" s="2">
-        <v>52</v>
-      </c>
-      <c r="G2" s="2">
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1">
         <v>365</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>44531</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>77227183</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>49187920</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>60194450</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>42571810</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>65326270</v>
       </c>
-      <c r="G3" s="5"/>
+      <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>44532</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>41526737</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="6">
         <v>48980260</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>59727190</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>57402750</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>62162170</v>
       </c>
-      <c r="G4" s="5"/>
+      <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>44533</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>69351467</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>73889980</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>60096370</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="6">
         <v>70629990</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="6">
         <v>71835060</v>
       </c>
-      <c r="G5" s="5"/>
+      <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>44534</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>51247399</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>70159370</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>63978410</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>65991940</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>60487780</v>
       </c>
-      <c r="G6" s="5"/>
+      <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>44535</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>68906456</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="6">
         <v>68338800</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>60916900</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="6">
         <v>69439780</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="6">
         <v>67213170</v>
       </c>
-      <c r="G7" s="5"/>
+      <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>44536</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>49715939</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>57508330</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>60360360</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>63662350</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <v>59567890</v>
       </c>
-      <c r="G8" s="5"/>
+      <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>44537</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>35673851</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>48684330</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>60625230</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>61327470</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <v>53090960</v>
       </c>
-      <c r="G9" s="5"/>
+      <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>44538</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>35659274</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>49368140</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>57746520</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>60797030</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <v>57856400</v>
       </c>
-      <c r="G10" s="5"/>
+      <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>44539</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>48255147</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="6">
         <v>49149540</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>56553200</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <v>60636350</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <v>57113560</v>
       </c>
-      <c r="G11" s="5"/>
+      <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>44540</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>56768085</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>74048980</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="6">
         <v>58184600</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>71057290</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="3">
         <v>72683900</v>
       </c>
-      <c r="G12" s="5"/>
+      <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>44541</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <v>69334618</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="6">
         <v>70308710</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="6">
         <v>64327980</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="6">
         <v>69763530</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="3">
         <v>59299100</v>
       </c>
-      <c r="G13" s="5"/>
+      <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <v>44542</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>77053697</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>68479080</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <v>66249350</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="3">
         <v>72313200</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="3">
         <v>58254290</v>
       </c>
-      <c r="G14" s="5"/>
+      <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <v>44543</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <v>57768387</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="6">
         <v>57640090</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="6">
         <v>60497460</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="6">
         <v>59118510</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="6">
         <v>58019780</v>
       </c>
-      <c r="G15" s="5"/>
+      <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
+      <c r="A16" s="2">
         <v>44544</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>38486391</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>48808090</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="3">
         <v>61105150</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="3">
         <v>63139330</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="3">
         <v>62648590</v>
       </c>
-      <c r="G16" s="5"/>
+      <c r="G16" s="4"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
+      <c r="A17" s="2">
         <v>44545</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <v>31766615</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <v>49484380</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="3">
         <v>61715400</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="3">
         <v>65436690</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="3">
         <v>52459000</v>
       </c>
-      <c r="G17" s="5"/>
+      <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
+      <c r="A18" s="2">
         <v>44546</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <v>46015054</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="6">
         <v>49258720</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="3">
         <v>65651500</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="3">
         <v>65491610</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="3">
         <v>59395100</v>
       </c>
-      <c r="G18" s="5"/>
+      <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
+      <c r="A19" s="2">
         <v>44547</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="5">
         <v>51296762</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <v>74151530</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="3">
         <v>62602110</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="3">
         <v>57723400</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="3">
         <v>64560920</v>
       </c>
-      <c r="G19" s="5"/>
+      <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
+      <c r="A20" s="2">
         <v>44548</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="5">
         <v>58203621</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <v>70405040</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="6">
         <v>62048290</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="3">
         <v>68472040</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="6">
         <v>62252610</v>
       </c>
-      <c r="G20" s="5"/>
+      <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
+      <c r="A21" s="2">
         <v>44549</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="5">
         <v>54939758</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <v>68569550</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="3">
         <v>62313770</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="3">
         <v>72265290</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="3">
         <v>65689310</v>
       </c>
-      <c r="G21" s="5"/>
+      <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
+      <c r="A22" s="2">
         <v>44550</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="5">
         <v>41869454</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="3">
         <v>57725070</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="3">
         <v>59435190</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="3">
         <v>55796120</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="3">
         <v>47144950</v>
       </c>
-      <c r="G22" s="5"/>
+      <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
+      <c r="A23" s="2">
         <v>44551</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="5">
         <v>51830618</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="6">
         <v>48887910</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="3">
         <v>58241910</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="6">
         <v>48657390</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="3">
         <v>54909440</v>
       </c>
-      <c r="G23" s="5"/>
+      <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
+      <c r="A24" s="2">
         <v>44552</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="5">
         <v>48838343</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="6">
         <v>49559360</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="3">
         <v>59873310</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24" s="6">
         <v>52679190</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F24" s="6">
         <v>51405470</v>
       </c>
-      <c r="G24" s="5"/>
+      <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="3">
+      <c r="A25" s="2">
         <v>44553</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="5">
         <v>40257093</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="3">
         <v>49329140</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="3">
         <v>66016700</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="3">
         <v>64140600</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="3">
         <v>56998180</v>
       </c>
-      <c r="G25" s="5"/>
+      <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="3">
+      <c r="A26" s="2">
         <v>44554</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="5">
         <v>44660225</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="3">
         <v>74217670</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="3">
         <v>67938060</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="3">
         <v>60506090</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="3">
         <v>56762280</v>
       </c>
-      <c r="G26" s="5"/>
+      <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="3">
+      <c r="A27" s="2">
         <v>44555</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="5">
         <v>71313940</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="6">
         <v>70467160</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="3">
         <v>62186170</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="3">
         <v>62875560</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="3">
         <v>59813870</v>
       </c>
-      <c r="G27" s="5"/>
+      <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="3">
+      <c r="A28" s="2">
         <v>44556</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="5">
         <v>67554989</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="6">
         <v>68627910</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="3">
         <v>62793860</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="3">
         <v>53516480</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="3">
         <v>58874300</v>
       </c>
-      <c r="G28" s="5"/>
+      <c r="G28" s="4"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="3">
+      <c r="A29" s="2">
         <v>44557</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29" s="5">
         <v>48002138</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="3">
         <v>57779880</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="3">
         <v>63404110</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="3">
         <v>64772240</v>
       </c>
-      <c r="F29" s="8">
+      <c r="F29" s="6">
         <v>51486680</v>
       </c>
-      <c r="G29" s="5"/>
+      <c r="G29" s="4"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="3">
+      <c r="A30" s="2">
         <v>44558</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30" s="5">
         <v>38070210</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="3">
         <v>48939390</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="3">
         <v>67340210</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="3">
         <v>64953890</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="3">
         <v>51154790</v>
       </c>
-      <c r="G30" s="5"/>
+      <c r="G30" s="4"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="3">
+      <c r="A31" s="2">
         <v>44559</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B31" s="5">
         <v>52093193</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31" s="6">
         <v>49607710</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="3">
         <v>64290830</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="3">
         <v>68565660</v>
       </c>
-      <c r="F31" s="8">
+      <c r="F31" s="6">
         <v>53979290</v>
       </c>
-      <c r="G31" s="5"/>
+      <c r="G31" s="4"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="3">
+      <c r="A32" s="2">
         <v>44560</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B32" s="5">
         <v>47463341</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="6">
         <v>49374560</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="3">
         <v>63737010</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32" s="3">
         <v>63316630</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32" s="3">
         <v>67665560</v>
       </c>
-      <c r="G32" s="5"/>
+      <c r="G32" s="4"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="3">
+      <c r="A33" s="2">
         <v>44561</v>
       </c>
-      <c r="B33" s="6">
+      <c r="B33" s="5">
         <v>66341333</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="3">
         <v>74260330</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D33" s="6">
         <v>64002490</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33" s="3">
         <v>60893780</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F33" s="3">
         <v>73416070</v>
       </c>
-      <c r="G33" s="5"/>
+      <c r="G33" s="4"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="9">
+      <c r="B34" s="9"/>
+      <c r="C34" s="7">
         <v>14327.1009335905</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D34" s="8">
         <v>3476.70613489076</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E34" s="4">
         <v>7103.8756709550498</v>
       </c>
-      <c r="F34" s="5">
+      <c r="F34" s="4">
         <v>9608.7567790380508</v>
       </c>
-      <c r="G34" s="5"/>
+      <c r="G34" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
